--- a/data/trans_camb/P20-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P20-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,82</t>
+          <t>-3,05; 2,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,4</t>
+          <t>-2,09; 4,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,75</t>
+          <t>-1,55; 4,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 9,39</t>
+          <t>-0,22; 9,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 7,77</t>
+          <t>-0,73; 7,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,87</t>
+          <t>-2,68; 3,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,62</t>
+          <t>-0,37; 4,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,77</t>
+          <t>-0,46; 4,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,27</t>
+          <t>-1,24; 3,3</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 78,16</t>
+          <t>-49,41; 73,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 127,28</t>
+          <t>-33,34; 105,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 108,45</t>
+          <t>-25,76; 123,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 217,21</t>
+          <t>-6,04; 204,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 200,83</t>
+          <t>-11,73; 174,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 90,36</t>
+          <t>-32,33; 91,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 101,89</t>
+          <t>-7,24; 106,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 102,56</t>
+          <t>-7,52; 104,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 74,82</t>
+          <t>-20,6; 73,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,94</t>
+          <t>-2,86; 2,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,67</t>
+          <t>-1,92; 4,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,2</t>
+          <t>-2,24; 3,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 6,42</t>
+          <t>-2,06; 6,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,2</t>
+          <t>-2,8; 5,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,08</t>
+          <t>-4,39; 3,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,5</t>
+          <t>-1,8; 3,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 4,04</t>
+          <t>-1,29; 3,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,11</t>
+          <t>-2,31; 2,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 124,28</t>
+          <t>-49,45; 95,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 163,26</t>
+          <t>-37,13; 151,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 121,63</t>
+          <t>-40,58; 117,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 103,22</t>
+          <t>-23,32; 113,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 84,36</t>
+          <t>-29,1; 94,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,68; 55,39</t>
+          <t>-43,64; 52,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 78,04</t>
+          <t>-25,73; 67,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 81,53</t>
+          <t>-17,93; 87,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 46,26</t>
+          <t>-30,93; 42,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,73</t>
+          <t>1,29; 7,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,92</t>
+          <t>-0,18; 4,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 4,69</t>
+          <t>-3,61; 4,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 4,28</t>
+          <t>-7,36; 4,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 6,96</t>
+          <t>-6,54; 7,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 7,11</t>
+          <t>-6,35; 6,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 5,28</t>
+          <t>0,16; 5,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,44</t>
+          <t>-0,81; 4,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 3,81</t>
+          <t>-4,05; 3,7</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,78; 227,88</t>
+          <t>21,12; 251,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 174,6</t>
+          <t>-6,78; 178,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-68,5; 134,19</t>
+          <t>-57,1; 132,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 65,49</t>
+          <t>-53,43; 76,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 108,7</t>
+          <t>-53,68; 130,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,57; 136,64</t>
+          <t>-49,14; 114,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 125,76</t>
+          <t>2,02; 128,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 105,54</t>
+          <t>-13,53; 102,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 82,34</t>
+          <t>-63,32; 78,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,67</t>
+          <t>-0,0; 3,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,86</t>
+          <t>-1,49; 1,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,05</t>
+          <t>-0,61; 3,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,98</t>
+          <t>-1,57; 4,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,49</t>
+          <t>-2,35; 3,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,14; -0,55</t>
+          <t>-7,18; -0,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,6</t>
+          <t>0,27; 3,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,07</t>
+          <t>-0,9; 2,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,04</t>
+          <t>-2,55; 0,97</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 98,39</t>
+          <t>-0,54; 96,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 48,92</t>
+          <t>-28,29; 53,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 80,25</t>
+          <t>-11,47; 92,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 67,46</t>
+          <t>-15,19; 62,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 48,15</t>
+          <t>-23,77; 44,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,54; -8,46</t>
+          <t>-69,17; -8,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,03; 66,27</t>
+          <t>3,92; 70,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 39,38</t>
+          <t>-13,46; 40,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 19,02</t>
+          <t>-36,76; 17,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,36</t>
+          <t>0,1; 6,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,55</t>
+          <t>-3,66; 1,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,05</t>
+          <t>0,58; 7,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 6,38</t>
+          <t>-0,27; 6,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,13</t>
+          <t>-3,76; 2,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 0,32</t>
+          <t>-5,31; 0,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,35</t>
+          <t>0,65; 5,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,9</t>
+          <t>-3,14; 0,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,09</t>
+          <t>-2,18; 2,12</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 233,35</t>
+          <t>0,39; 232,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,83; 63,11</t>
+          <t>-59,14; 52,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,95; 240,89</t>
+          <t>5,92; 259,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 117,6</t>
+          <t>-3,53; 116,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 38,81</t>
+          <t>-42,32; 35,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 5,47</t>
+          <t>-58,31; 8,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,62; 110,12</t>
+          <t>6,8; 111,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,11; 17,68</t>
+          <t>-41,66; 19,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 42,18</t>
+          <t>-29,66; 42,93</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,21</t>
+          <t>-0,8; 4,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,46</t>
+          <t>-0,41; 4,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,23</t>
+          <t>-2,19; 2,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,39</t>
+          <t>-0,78; 3,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,72</t>
+          <t>-2,29; 1,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,79</t>
+          <t>-2,95; 0,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,11</t>
+          <t>-0,43; 3,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,88</t>
+          <t>-1,7; 1,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 0,68</t>
+          <t>-2,53; 0,6</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 1210,49</t>
+          <t>-65,49; 1249,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 1116,42</t>
+          <t>-51,93; 1308,04</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-95,54; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 60,16</t>
+          <t>-12,0; 56,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 30,69</t>
+          <t>-32,13; 28,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 15,59</t>
+          <t>-39,82; 15,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 67,03</t>
+          <t>-6,89; 70,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 40,65</t>
+          <t>-28,31; 34,1</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 16,56</t>
+          <t>-41,97; 13,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,21</t>
+          <t>0,82; 2,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,68</t>
+          <t>-0,26; 1,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,59</t>
+          <t>-0,1; 2,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,49</t>
+          <t>0,65; 3,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,74</t>
+          <t>-0,94; 1,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,91; -0,23</t>
+          <t>-2,9; -0,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,89</t>
+          <t>1,08; 2,81</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,36</t>
+          <t>-0,34; 1,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,85</t>
+          <t>-1,01; 0,83</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>19,26; 87,52</t>
+          <t>17,62; 80,56</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 45,89</t>
+          <t>-6,01; 47,22</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 70,1</t>
+          <t>-1,87; 66,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,28; 52,19</t>
+          <t>8,06; 52,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 25,14</t>
+          <t>-11,53; 25,19</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-36,79; -3,53</t>
+          <t>-36,54; -2,79</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,0; 53,06</t>
+          <t>17,34; 52,05</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 25,52</t>
+          <t>-5,49; 25,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 15,72</t>
+          <t>-16,4; 14,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P20-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
